--- a/ACC2024/1000s_Results/GBD__traditionalFeasibility__initial_cuts_1.xlsx
+++ b/ACC2024/1000s_Results/GBD__traditionalFeasibility__initial_cuts_1.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinanro\Desktop\GeneralBenders\ACC2024\1000s_Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +83,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +169,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +204,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +380,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -386,23 +403,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-2977.500000000001</v>
+        <v>-2977.5000000000009</v>
       </c>
       <c r="B2">
         <v>100000</v>
       </c>
       <c r="C2">
-        <v>7.125288486480713</v>
+        <v>7.1252884864807129</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-2977.499999999999</v>
+        <v>-2977.4999999999991</v>
       </c>
       <c r="B3">
         <v>100000</v>
@@ -414,21 +431,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-2879.999999999999</v>
+        <v>-2879.9999999999991</v>
       </c>
       <c r="B4">
         <v>100000</v>
       </c>
       <c r="C4">
-        <v>38.89604473114014</v>
+        <v>38.896044731140137</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2875</v>
       </c>
@@ -442,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2875</v>
       </c>
@@ -450,13 +467,13 @@
         <v>100000</v>
       </c>
       <c r="C6">
-        <v>104.7230639457703</v>
+        <v>104.72306394577031</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2845</v>
       </c>
@@ -464,13 +481,13 @@
         <v>100000</v>
       </c>
       <c r="C7">
-        <v>165.1522986888885</v>
+        <v>165.15229868888849</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2805.833333333333</v>
       </c>
@@ -478,41 +495,41 @@
         <v>100000</v>
       </c>
       <c r="C8">
-        <v>261.7127327919006</v>
+        <v>261.71273279190058</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-2766.666666666666</v>
+        <v>-2766.6666666666661</v>
       </c>
       <c r="B9">
         <v>100000</v>
       </c>
       <c r="C9">
-        <v>364.3295495510101</v>
+        <v>364.32954955101007</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-2756.666666666666</v>
+        <v>-2756.6666666666661</v>
       </c>
       <c r="B10">
         <v>100000</v>
       </c>
       <c r="C10">
-        <v>440.6910083293915</v>
+        <v>440.69100832939148</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2678.333333333333</v>
       </c>
@@ -520,13 +537,13 @@
         <v>100000</v>
       </c>
       <c r="C11">
-        <v>558.8906872272491</v>
+        <v>558.89068722724915</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2668.333333333333</v>
       </c>
@@ -534,21 +551,21 @@
         <v>100000</v>
       </c>
       <c r="C12">
-        <v>600.7235321998596</v>
+        <v>600.72353219985962</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-2586.333333333334</v>
+        <v>-2586.3333333333339</v>
       </c>
       <c r="B13">
         <v>100000</v>
       </c>
       <c r="C13">
-        <v>1818.533499002457</v>
+        <v>1818.5334990024569</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -556,5 +573,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>